--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2351392.364719375</v>
+        <v>2455571.999170447</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9271219.703133248</v>
+        <v>9271219.703133246</v>
       </c>
     </row>
     <row r="11">
@@ -662,10 +664,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>90.5530804075504</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>352.4272902673824</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247586</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.118847112889707</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>114.1418776004526</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92.42092342598717</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>52.90622424463385</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>160.8915086215183</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>54.45803047044404</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>197.2040098788562</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>83.41943806107113</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>44.69901519809354</v>
+        <v>108.6892847025052</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518786</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695479</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>35.63623515385274</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1658,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1768,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1816,13 +1818,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>60.78102717027877</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2239,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>61.3925852712106</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2290,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>172.0260335000821</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2333,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2473,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>141.4641157700703</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>41.55695577161193</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>113.3214422457876</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
-        <v>137.9792024346629</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>111.5361117049718</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>1.799772605717294</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="33">
@@ -3196,7 +3198,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,13 +3243,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>266.3321854924545</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>78.68827782033955</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>5.890337106877502</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3803,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3898,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>30.9719158638759</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>79.11532312206231</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>137.9640996397611</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,16 +4194,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>80.10107535865944</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1986.901740067214</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993393</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V2" t="n">
-        <v>3119.628073993393</v>
+        <v>2774.629839279804</v>
       </c>
       <c r="W2" t="n">
-        <v>3119.628073993393</v>
+        <v>2421.86118400969</v>
       </c>
       <c r="X2" t="n">
-        <v>2763.640912107148</v>
+        <v>2048.39542574861</v>
       </c>
       <c r="Y2" t="n">
-        <v>2373.501580131336</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3102.672992856661</v>
+        <v>518.4459618444143</v>
       </c>
       <c r="C4" t="n">
-        <v>2933.736809928754</v>
+        <v>349.5097789165075</v>
       </c>
       <c r="D4" t="n">
-        <v>2933.736809928754</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E4" t="n">
-        <v>2785.823716346361</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F4" t="n">
-        <v>2638.933768848451</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K4" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M4" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N4" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O4" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P4" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="V4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="W4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="X4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="Y4" t="n">
-        <v>3104.813242465641</v>
+        <v>700.0944266746541</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2005.586939522201</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218339</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4577,7 +4579,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939507</v>
@@ -4586,31 +4588,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>3066.187443443257</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136265</v>
+        <v>2735.124556099686</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.54649786615</v>
+        <v>2382.355900829572</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.08073960507</v>
+        <v>2008.890142568492</v>
       </c>
       <c r="Y5" t="n">
-        <v>2098.941407629259</v>
+        <v>1618.75081059268</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,37 +4661,37 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>235.4482993600903</v>
+        <v>229.0287918074544</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218339</v>
+        <v>229.0287918074544</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218339</v>
+        <v>229.0287918074544</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218339</v>
+        <v>229.0287918074544</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218339</v>
+        <v>229.0287918074544</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>865.8788942318774</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>865.8788942318774</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>865.8788942318774</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>865.8788942318774</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X7" t="n">
-        <v>637.8893433338601</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="Y7" t="n">
-        <v>417.09676419033</v>
+        <v>410.6772566376941</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389512</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609169</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3126.409852034567</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3126.409852034567</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>3126.409852034567</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2752.944093773487</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y8" t="n">
-        <v>2362.804761797675</v>
+        <v>1987.713327533092</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4874,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4896,10 +4898,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>531.2215399677106</v>
+        <v>500.476813167026</v>
       </c>
       <c r="C10" t="n">
-        <v>531.2215399677106</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="D10" t="n">
-        <v>381.1049005553748</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757121</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757121</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757121</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U10" t="n">
-        <v>831.0565485757121</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V10" t="n">
-        <v>576.3720603698252</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="W10" t="n">
-        <v>576.3720603698252</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="X10" t="n">
-        <v>531.2215399677106</v>
+        <v>721.2693923105561</v>
       </c>
       <c r="Y10" t="n">
-        <v>531.2215399677106</v>
+        <v>500.476813167026</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5029,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168605</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,34 +5038,34 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492579</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>984.5467179762944</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>815.6105350483875</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578603</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5224,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1166.195182806534</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5364,19 +5366,19 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N15" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2072.35525930079</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2495.978408795858</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D16" t="n">
         <v>484.8112968429803</v>
@@ -5464,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5497,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5510,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5555,7 +5557,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P18" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2532.719182723414</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597619</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597619</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>411.9631215597619</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>244.7670222746419</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>991.7436897307817</v>
       </c>
       <c r="C22" t="n">
         <v>929.7309773356195</v>
@@ -5929,31 +5931,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.963083580264</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>2273.199413378161</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>1173.392154561021</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
@@ -5975,16 +5977,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6005,10 +6007,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>721.7774158311365</v>
+        <v>3234.407389034259</v>
       </c>
       <c r="C25" t="n">
-        <v>552.8412329032296</v>
+        <v>3091.514342801865</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>2941.397703389529</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>2793.484609807136</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>2646.594662309225</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>2479.398563024105</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S25" t="n">
-        <v>2404.986360578632</v>
+        <v>4507.978318053497</v>
       </c>
       <c r="T25" t="n">
-        <v>2185.384895601574</v>
+        <v>4288.376853076438</v>
       </c>
       <c r="U25" t="n">
-        <v>1896.309668945771</v>
+        <v>3999.301626420636</v>
       </c>
       <c r="V25" t="n">
-        <v>1641.625180739884</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W25" t="n">
-        <v>1352.208010702924</v>
+        <v>3455.199968177789</v>
       </c>
       <c r="X25" t="n">
-        <v>1124.218459804906</v>
+        <v>3455.199968177789</v>
       </c>
       <c r="Y25" t="n">
-        <v>903.4258806613763</v>
+        <v>3234.407389034259</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,46 +6220,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397187</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.212916266271</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>2149.810879820878</v>
       </c>
       <c r="O27" t="n">
-        <v>2222.001901828445</v>
+        <v>2149.810879820878</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081859</v>
+        <v>915.1035305473707</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>746.1673476194638</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>746.1673476194638</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>4551.460220646409</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4551.460220646409</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U28" t="n">
-        <v>4262.384993990607</v>
+        <v>1907.987318831766</v>
       </c>
       <c r="V28" t="n">
-        <v>4262.384993990607</v>
+        <v>1653.302830625879</v>
       </c>
       <c r="W28" t="n">
-        <v>3972.967823953646</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X28" t="n">
-        <v>3744.978273055629</v>
+        <v>1135.896109690901</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912098</v>
+        <v>915.1035305473707</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,28 +6475,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2757.723669558405</v>
+        <v>3342.53722908186</v>
       </c>
       <c r="C31" t="n">
-        <v>2588.787486630498</v>
+        <v>3173.601046153953</v>
       </c>
       <c r="D31" t="n">
-        <v>2586.969534503511</v>
+        <v>3023.484406741617</v>
       </c>
       <c r="E31" t="n">
-        <v>2586.969534503511</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="F31" t="n">
-        <v>2586.969534503511</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G31" t="n">
-        <v>2419.773435218391</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>4507.978318053499</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>4288.37685307644</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>3999.301626420638</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>3744.617138214751</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430192</v>
+        <v>3455.199968177791</v>
       </c>
       <c r="X31" t="n">
-        <v>3160.164713532175</v>
+        <v>3455.199968177791</v>
       </c>
       <c r="Y31" t="n">
-        <v>2939.372134388645</v>
+        <v>3455.199968177791</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,19 +6697,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>2490.32382148308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3087.702309109632</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>3715.300272664238</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1708.43867092217</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1708.43867092217</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1419.02150088521</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,28 +6949,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7020,22 +7022,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1022.530292372932</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C37" t="n">
-        <v>853.5941094450255</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>703.4774700326898</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>555.5643764502967</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>408.6744289523863</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>241.4783296672662</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>99.7664985094643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U37" t="n">
-        <v>2197.062545487567</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V37" t="n">
-        <v>1942.37805728168</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1652.96088724472</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>1424.971336346702</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>1204.178757203172</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7160,37 +7162,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7257,22 +7259,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,10 +7426,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7451,7 +7453,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>562.8579153358619</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,55 +7545,55 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>801.6918836311994</v>
       </c>
       <c r="C43" t="n">
-        <v>580.8993044876688</v>
+        <v>632.7557007032925</v>
       </c>
       <c r="D43" t="n">
-        <v>580.8993044876688</v>
+        <v>482.6390612909568</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>482.6390612909568</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>482.6390612909568</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>315.4429620058367</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>173.7311308480348</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
         <v>2264.108249235165</v>
@@ -7609,10 +7611,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
@@ -7634,22 +7636,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,10 +7660,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>562.8579153358619</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O45" t="n">
         <v>2283.159972732779</v>
@@ -7780,55 +7782,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
         <v>2264.108249235165</v>
@@ -7840,16 +7842,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1755.431557602304</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1466.014387565343</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1238.024836667326</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>1238.024836667326</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -23419,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>112.9792378643596</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23704,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>106.4657939283491</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>105.8542358274172</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24178,10 +24180,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>114.158440889162</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>25.78270532855757</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>139.4693302300327</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>33.11252040078159</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>43.04708356698171</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>68.29586847696551</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>146.8157004124951</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25084,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>19.85228889678962</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>207.8347205162515</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>75.37549921168804</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>115.4620467826933</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>2.150513196503212</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.86788054217615</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>145.6085800303777</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>802216.5338230641</v>
+        <v>802216.5338230638</v>
       </c>
     </row>
     <row r="9">
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="E2" t="n">
         <v>625538.614759755</v>
       </c>
       <c r="F2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="G2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="G2" t="n">
-        <v>625538.614759755</v>
-      </c>
       <c r="H2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597547</v>
@@ -26341,10 +26343,10 @@
         <v>625538.614759755</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
         <v>625538.6147597549</v>
@@ -26353,7 +26355,7 @@
         <v>625538.6147597547</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972779</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405262</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405263</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>16046.583971892</v>
@@ -26433,7 +26435,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189203</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
@@ -26442,13 +26444,13 @@
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189198</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-893968.0587482187</v>
+        <v>-893968.0587482183</v>
       </c>
       <c r="C6" t="n">
-        <v>434776.6869793737</v>
+        <v>434776.6869793732</v>
       </c>
       <c r="D6" t="n">
-        <v>434776.6869793741</v>
+        <v>434776.6869793743</v>
       </c>
       <c r="E6" t="n">
-        <v>182957.0391566001</v>
+        <v>182957.0391566005</v>
       </c>
       <c r="F6" t="n">
         <v>508369.5009639557</v>
       </c>
       <c r="G6" t="n">
-        <v>508369.5009639559</v>
+        <v>508369.5009639556</v>
       </c>
       <c r="H6" t="n">
-        <v>508369.5009639557</v>
+        <v>508369.5009639556</v>
       </c>
       <c r="I6" t="n">
         <v>508369.5009639557</v>
       </c>
       <c r="J6" t="n">
-        <v>290838.2985666784</v>
+        <v>290838.298566678</v>
       </c>
       <c r="K6" t="n">
-        <v>508369.5009639559</v>
+        <v>508369.5009639561</v>
       </c>
       <c r="L6" t="n">
-        <v>508369.5009639559</v>
+        <v>508369.5009639555</v>
       </c>
       <c r="M6" t="n">
         <v>423314.4730284439</v>
       </c>
       <c r="N6" t="n">
-        <v>508369.5009639558</v>
+        <v>508369.5009639557</v>
       </c>
       <c r="O6" t="n">
-        <v>508369.5009639557</v>
+        <v>508369.5009639556</v>
       </c>
       <c r="P6" t="n">
-        <v>508369.5009639559</v>
+        <v>508369.5009639556</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26811,16 +26813,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26960,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27384,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>237.1991780625845</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>17.30381041108666</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.595168441781425e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177.7131330690476</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>34.47359541775978</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>290.3129182374934</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>198.0889477142681</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27774,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>5.134299637509969</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>165.0909188057252</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27834,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>53.79116208004575</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>302.8185005949824</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28068,16 +28070,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>181.0106401909436</v>
+        <v>117.0203706865319</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28138,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>5.194312413142801e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -29509,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-5.260329494105887e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29983,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-5.260329494105887e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987499</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,10 +31843,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,10 +31855,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>543.0832917018711</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32084,10 +32086,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,10 +32098,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>197.6412480909884</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32248,7 +32250,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
         <v>790.8204499236507</v>
@@ -32309,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32330,13 +32332,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>166.2270851128133</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,10 +32548,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32558,22 +32560,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32725,7 +32727,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236501</v>
       </c>
       <c r="Q23" t="n">
         <v>593.8732233669223</v>
@@ -32786,7 +32788,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32798,19 +32800,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>189.0011860883002</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>468.3778278510275</v>
+        <v>268.6704608606955</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33266,34 +33268,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>362.8934092184356</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963275</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>242.2322097768135</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33977,34 +33979,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>458.6770173132157</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>458.6770173132157</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>616.375287159485</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127284</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,10 +35491,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,10 +35503,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35732,10 +35734,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,10 +35746,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.65947400496688</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35896,7 +35898,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35978,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,22 +36208,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36297,7 +36299,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572999021</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36373,7 +36375,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683806</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36446,19 +36448,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>57.65947400496688</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>334.4034204366973</v>
+        <v>134.6960534463653</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36916,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>224.3390294385614</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>261.3487819164533</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>103.6778299969394</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37627,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>320.8355783388567</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>320.8355783388567</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>473.7790427150405</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2455571.999170447</v>
+        <v>2451559.389156454</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9271219.703133246</v>
+        <v>9271219.703133248</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>20.29515656310216</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>90.5530804075504</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247586</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -822,13 +822,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>114.1418776004526</v>
+        <v>40.87152028304765</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>52.90622424463385</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>77.97736515780205</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>160.8915086215183</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>150.4026958753531</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>218.8748435506832</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>83.41943806107113</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>108.6892847025052</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187853</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695479</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272829</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>112.6683130938007</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560523</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>113.6427030833203</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>60.78102717027877</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2241,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>61.3925852712106</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2377,10 +2377,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>141.4641157700703</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>249.0584607366395</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>99.39152647956271</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>113.3214422457876</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.5361117049718</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>66.25628701154712</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>78.68827782033955</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>130.4114987159128</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>99.97427419833861</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>85.08368458989422</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>79.11532312206231</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>80.10107535865944</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1661.795585684488</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1292.833068744076</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2774.629839279804</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2421.86118400969</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X2" t="n">
-        <v>2048.39542574861</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y2" t="n">
-        <v>2048.39542574861</v>
+        <v>2365.667596818513</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.543854481107</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.09082519998</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387288</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332733</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601583</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927764</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064387</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4424,37 +4424,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>518.4459618444143</v>
+        <v>739.2385409879452</v>
       </c>
       <c r="C4" t="n">
-        <v>349.5097789165075</v>
+        <v>570.3023580600383</v>
       </c>
       <c r="D4" t="n">
-        <v>234.2149530574644</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574644</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>700.0944266746541</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1232.150970528558</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
         <v>1232.150970528558</v>
@@ -4564,7 +4564,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912088</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3066.187443443257</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2735.124556099686</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2382.355900829572</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>2008.890142568492</v>
+        <v>2345.979026139843</v>
       </c>
       <c r="Y5" t="n">
-        <v>1618.75081059268</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>229.0287918074544</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C7" t="n">
-        <v>229.0287918074544</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>229.0287918074544</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>229.0287918074544</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>229.0287918074544</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4749,28 +4749,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="W7" t="n">
-        <v>631.4698357812242</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="X7" t="n">
-        <v>631.4698357812242</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="Y7" t="n">
-        <v>410.6772566376941</v>
+        <v>679.1346335501037</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.11348746897</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678286</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4831,25 +4831,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180638</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>1987.713327533092</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>500.476813167026</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>331.5406302391191</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>331.5406302391191</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
         <v>66.5121164321834</v>
@@ -4986,28 +4986,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>721.2693923105561</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.476813167026</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D13" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>244.7670222746419</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5229,22 +5229,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258111</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1755.431557602309</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="14">
@@ -5266,19 +5266,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192673</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075813</v>
@@ -5305,22 +5305,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5472,16 +5472,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,7 +5512,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5557,7 +5557,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5715,10 +5715,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,37 +5734,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>991.7436897307817</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1394.184733704551</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1173.392154561021</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6004,13 +6004,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3234.407389034259</v>
+        <v>551.354624631591</v>
       </c>
       <c r="C25" t="n">
-        <v>3091.514342801865</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D25" t="n">
-        <v>2941.397703389529</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E25" t="n">
-        <v>2793.484609807136</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>2646.594662309225</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>2479.398563024105</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.978318053497</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4288.376853076438</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3999.301626420636</v>
+        <v>1725.886877746226</v>
       </c>
       <c r="V25" t="n">
-        <v>3744.61713821475</v>
+        <v>1471.202389540339</v>
       </c>
       <c r="W25" t="n">
-        <v>3455.199968177789</v>
+        <v>1181.785219503378</v>
       </c>
       <c r="X25" t="n">
-        <v>3455.199968177789</v>
+        <v>953.7956686053609</v>
       </c>
       <c r="Y25" t="n">
-        <v>3234.407389034259</v>
+        <v>733.0030894618308</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273908</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239598</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.212916266271</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2149.810879820878</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2149.810879820878</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>915.1035305473707</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C28" t="n">
-        <v>746.1673476194638</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D28" t="n">
-        <v>746.1673476194638</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831766</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625879</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588918</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.896109690901</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>915.1035305473707</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6445,67 +6445,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>315.9123021921476</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3342.53722908186</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153953</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741617</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159224</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661314</v>
+        <v>302.45403664168</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376194</v>
+        <v>302.45403664168</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218392</v>
+        <v>160.7422054838781</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053499</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.37685307644</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U31" t="n">
-        <v>3999.301626420638</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V31" t="n">
-        <v>3744.617138214751</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W31" t="n">
-        <v>3455.199968177791</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X31" t="n">
-        <v>3455.199968177791</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y31" t="n">
-        <v>3455.199968177791</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,10 +6712,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1354.218256739386</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,37 +6949,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,13 +7186,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7429,7 +7429,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>562.8579153358619</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,55 +7545,55 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>801.6918836311994</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>632.7557007032925</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>482.6390612909568</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E43" t="n">
-        <v>482.6390612909568</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F43" t="n">
-        <v>482.6390612909568</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>315.4429620058367</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>173.7311308480348</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
         <v>2264.108249235165</v>
@@ -7611,10 +7611,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>983.3403484614391</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,10 +7660,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>562.8579153358619</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>559.0424953278208</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>139.4693302300273</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>34.97276993489203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>106.4657939283491</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>105.8542358274172</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>25.78270532855757</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>37.12601365260468</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>80.44045370237458</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>33.11252040078159</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.29586847696551</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>15.00954930701842</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>207.8347205162515</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25323,10 +25323,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>35.112639576356</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -25368,7 +25368,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>46.45968844823057</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>61.35027805667495</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>2.150513196503212</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>145.6085800303777</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>802216.5338230638</v>
+        <v>802216.5338230641</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>802216.5338230639</v>
+        <v>802216.5338230638</v>
       </c>
     </row>
     <row r="11">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.37164482</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448201</v>
@@ -26325,34 +26325,34 @@
         <v>625538.614759755</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="G2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597545</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="M2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="O2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625538.6147597547</v>
       </c>
       <c r="P2" t="n">
         <v>625538.6147597547</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>4.14093847211916e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.461807355</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972779</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405262</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189207</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189205</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189198</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189198</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189198</v>
       </c>
       <c r="J4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-893968.0587482183</v>
+        <v>-893968.0587482185</v>
       </c>
       <c r="C6" t="n">
-        <v>434776.6869793732</v>
+        <v>434776.6869793738</v>
       </c>
       <c r="D6" t="n">
         <v>434776.6869793743</v>
       </c>
       <c r="E6" t="n">
-        <v>182957.0391566005</v>
+        <v>182609.6599022439</v>
       </c>
       <c r="F6" t="n">
-        <v>508369.5009639557</v>
+        <v>508022.1217095987</v>
       </c>
       <c r="G6" t="n">
-        <v>508369.5009639556</v>
+        <v>508022.1217095984</v>
       </c>
       <c r="H6" t="n">
-        <v>508369.5009639556</v>
+        <v>508022.1217095984</v>
       </c>
       <c r="I6" t="n">
-        <v>508369.5009639557</v>
+        <v>508022.1217095988</v>
       </c>
       <c r="J6" t="n">
-        <v>290838.298566678</v>
+        <v>290490.9193123213</v>
       </c>
       <c r="K6" t="n">
-        <v>508369.5009639561</v>
+        <v>508022.1217095985</v>
       </c>
       <c r="L6" t="n">
-        <v>508369.5009639555</v>
+        <v>508022.1217095988</v>
       </c>
       <c r="M6" t="n">
-        <v>423314.4730284439</v>
+        <v>422967.093774087</v>
       </c>
       <c r="N6" t="n">
-        <v>508369.5009639557</v>
+        <v>508022.1217095986</v>
       </c>
       <c r="O6" t="n">
-        <v>508369.5009639556</v>
+        <v>508022.1217095988</v>
       </c>
       <c r="P6" t="n">
-        <v>508369.5009639556</v>
+        <v>508022.1217095986</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>5.688425465021952e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.688425465021952e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>5.688425465021952e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.688425465021952e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.688425465021952e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
@@ -26813,16 +26813,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>5.688425465021952e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26962,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>5.688425465021952e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>362.4386851003784</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>237.1991780625845</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.595168441781425e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27542,13 +27542,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>34.47359541775978</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>198.0889477142681</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>291.753735520667</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5.134299637509969</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>39.36632945608878</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>108.8774149194517</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>302.8185005949824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>117.0203706865319</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="11">
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>5.688425465021952e-14</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.688425465021952e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,22 +28140,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>5.194312413142801e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>5.688425465021952e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>5.688425465021952e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>5.688425465021952e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>5.688425465021952e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>5.688425465021952e-14</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28301,7 +28301,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>5.323418164349708e-12</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28341,10 +28341,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.688425465021952e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.688425465021952e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,16 +28377,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>5.688425465021952e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>5.688425465021952e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>5.688425465021952e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>5.688425465021952e-14</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.250310200201307e-12</v>
       </c>
     </row>
     <row r="15">
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>5.688425465021952e-14</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.688425465021952e-14</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29094,10 +29094,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>5.688425465021952e-14</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>5.688425465021952e-14</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-5.260329494105887e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-5.260329494105887e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31615,7 +31615,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31624,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,28 +31837,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P12" t="n">
-        <v>543.0832917018711</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806724</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,40 +32074,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>519.7862086120942</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32250,7 +32250,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
         <v>790.8204499236507</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32727,7 +32727,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236501</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
         <v>593.8732233669223</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32800,19 +32800,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>193.1175412796309</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>268.6704608606955</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>362.8934092184356</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>242.2322097768135</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>458.6770173132157</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>458.6770173132157</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35263,7 +35263,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35272,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P12" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318053</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>388.4444965287609</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36375,7 +36375,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683806</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36448,19 +36448,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>61.77582919629761</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>134.6960534463653</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>224.3390294385614</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>103.6778299969394</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>320.8355783388567</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>320.8355783388567</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2451559.389156454</v>
+        <v>2453319.919459241</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9271219.703133248</v>
+        <v>9271219.703133246</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.29515656310216</v>
+        <v>75.4571321610379</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -718,13 +718,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -755,7 +755,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
         <v>18.81721868247742</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>40.87152028304765</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>20.75019519330568</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>319.0402803606652</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>77.97736515780205</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>150.4026958753531</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>20.75019519330568</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,10 +1150,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>209.318654952236</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>218.8748435506832</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386351</v>
+        <v>58.28185552386362</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710094</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187853</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1536,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>112.1382188876862</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272829</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>112.6683130938007</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187865</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1660,13 +1660,13 @@
         <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560523</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997922</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>45.66054613217651</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428166</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2377,10 +2377,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>249.0584607366395</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>251.2117044543522</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.39152647956271</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,10 +2721,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>80.10107535865887</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>66.25628701154712</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>251.1196674903453</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>130.4114987159128</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>85.08368458989422</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,7 +4327,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912087</v>
@@ -4336,7 +4336,7 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4351,7 +4351,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794324</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2755.806928794324</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2365.667596818513</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4385,31 +4385,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>739.2385409879452</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C4" t="n">
-        <v>570.3023580600383</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
         <v>529.0179941377679</v>
@@ -4479,16 +4479,16 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
@@ -4497,43 +4497,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181849</v>
+        <v>899.9272126936338</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181849</v>
+        <v>679.1346335501037</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1959.379186075721</v>
+        <v>1870.65619074133</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1501.693673800919</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1143.427975194168</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1143.427975194168</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X5" t="n">
-        <v>2345.979026139843</v>
+        <v>2257.256030805452</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.979026139843</v>
+        <v>2257.256030805452</v>
       </c>
     </row>
     <row r="6">
@@ -4637,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4716,16 +4716,16 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4734,40 +4734,40 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>679.1346335501037</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>679.1346335501037</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>679.1346335501037</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>679.1346335501037</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>679.1346335501037</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>679.1346335501037</v>
+        <v>899.9272126936338</v>
       </c>
       <c r="Y7" t="n">
         <v>679.1346335501037</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>741.9599508971601</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678286</v>
+        <v>330.9740461075525</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>319.9419999929531</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>3104.520121052924</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.75146578281</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="9">
@@ -4874,16 +4874,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4944,67 +4944,67 @@
         <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124868</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y10" t="n">
         <v>862.0164446829692</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>721.7774158311364</v>
+        <v>988.1395539230181</v>
       </c>
       <c r="C13" t="n">
-        <v>552.8412329032295</v>
+        <v>819.2033709951112</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>669.0867315827754</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>521.1736380003823</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>374.2836905024719</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>207.0875912173519</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258111</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602309</v>
+        <v>1907.987318831766</v>
       </c>
       <c r="V13" t="n">
-        <v>1641.625180739884</v>
+        <v>1907.987318831766</v>
       </c>
       <c r="W13" t="n">
-        <v>1352.208010702924</v>
+        <v>1618.570148794805</v>
       </c>
       <c r="X13" t="n">
-        <v>1124.218459804906</v>
+        <v>1390.580597896788</v>
       </c>
       <c r="Y13" t="n">
-        <v>903.4258806613761</v>
+        <v>1169.788018753258</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192673</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="17">
@@ -5509,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5746,7 +5746,7 @@
         <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192596</v>
@@ -5758,16 +5758,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L21" t="n">
         <v>740.5562989961525</v>
@@ -5889,25 +5889,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5983,49 +5983,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852889</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6074,16 +6074,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>551.354624631591</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C25" t="n">
-        <v>382.4184417036842</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D25" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1725.886877746226</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V25" t="n">
-        <v>1471.202389540339</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W25" t="n">
-        <v>1181.785219503378</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X25" t="n">
-        <v>953.7956686053609</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y25" t="n">
-        <v>733.0030894618308</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>662.1522880254209</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C28" t="n">
-        <v>493.2161050975141</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D28" t="n">
-        <v>343.0994656851783</v>
+        <v>489.8360330454435</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0994656851783</v>
+        <v>341.9229394630504</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6426,10 +6426,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="29">
@@ -6445,37 +6445,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6545,25 +6545,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>747.3737171343192</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>597.2570777219835</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>449.3439841395904</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>302.45403664168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>302.45403664168</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>160.7422054838781</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6897,13 +6897,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1180.045135860591</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>952.0555849625741</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>731.263005819044</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>747.3737171343192</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>597.2570777219835</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>449.3439841395904</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>449.3439841395904</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7311,22 +7311,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>261.8464821474262</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
         <v>402.7245934908939</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>28.15649395853771</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>139.4693302300273</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>124.9899273367988</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>37.12601365260468</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>0.9259388694757718</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.44045370237458</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>65.31997266427237</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>15.00954930701842</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>35.40333084624567</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>35.112639576356</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>61.35027805667495</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>802216.5338230641</v>
+        <v>802216.5338230639</v>
       </c>
     </row>
     <row r="6">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>802216.5338230639</v>
+        <v>802216.5338230638</v>
       </c>
     </row>
     <row r="14">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448196</v>
@@ -26322,40 +26322,40 @@
         <v>636307.3716448201</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597552</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597552</v>
       </c>
       <c r="G2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.6147597545</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="J2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="M2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="O2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.461807355</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,25 +26420,25 @@
         <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189207</v>
+        <v>16046.58397189189</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189205</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189198</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189198</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189198</v>
+        <v>16046.58397189203</v>
       </c>
       <c r="J4" t="n">
         <v>16046.58397189197</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-893968.0587482185</v>
+        <v>-893968.0587482183</v>
       </c>
       <c r="C6" t="n">
         <v>434776.6869793738</v>
@@ -26530,40 +26530,40 @@
         <v>434776.6869793743</v>
       </c>
       <c r="E6" t="n">
-        <v>182609.6599022439</v>
+        <v>182922.3012311648</v>
       </c>
       <c r="F6" t="n">
-        <v>508022.1217095987</v>
+        <v>508334.7630385204</v>
       </c>
       <c r="G6" t="n">
-        <v>508022.1217095984</v>
+        <v>508334.7630385202</v>
       </c>
       <c r="H6" t="n">
-        <v>508022.1217095984</v>
+        <v>508334.7630385198</v>
       </c>
       <c r="I6" t="n">
-        <v>508022.1217095988</v>
+        <v>508334.7630385201</v>
       </c>
       <c r="J6" t="n">
-        <v>290490.9193123213</v>
+        <v>290803.5606412425</v>
       </c>
       <c r="K6" t="n">
-        <v>508022.1217095985</v>
+        <v>508334.76303852</v>
       </c>
       <c r="L6" t="n">
-        <v>508022.1217095988</v>
+        <v>508334.7630385199</v>
       </c>
       <c r="M6" t="n">
-        <v>422967.093774087</v>
+        <v>423279.7351030081</v>
       </c>
       <c r="N6" t="n">
-        <v>508022.1217095986</v>
+        <v>508334.76303852</v>
       </c>
       <c r="O6" t="n">
-        <v>508022.1217095988</v>
+        <v>508334.76303852</v>
       </c>
       <c r="P6" t="n">
-        <v>508022.1217095986</v>
+        <v>508334.76303852</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>362.4386851003784</v>
+        <v>307.2767095024427</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>107.7439527351647</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>204.9594601957315</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>87.83576538104626</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>291.753735520667</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>39.36632945608878</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>204.9594601957315</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>85.28910943508447</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>108.8774149194517</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.3027978282313</v>
+        <v>160.3027978282312</v>
       </c>
     </row>
     <row r="11">
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28143,19 +28143,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28301,7 +28301,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>5.323418164349708e-12</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28341,10 +28341,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,16 +28377,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.250310200201307e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29094,10 +29094,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>5.688425465021952e-14</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>5.688425465021952e-14</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.015579806724</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32794,7 +32794,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>332.9841464938405</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33186,7 +33186,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>454.8099857531869</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113578</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236318053</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>199.0097390795103</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
